--- a/docs/Mapping_casi_uso/morte/Morte_011.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="182">
   <si>
     <t>Sezione</t>
   </si>
@@ -248,6 +248,48 @@
     <t>indirizzoMorte</t>
   </si>
   <si>
+    <t>Sentenza di morte presunta</t>
+  </si>
+  <si>
+    <t>Nome ente</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneMorte.attoEstero.enteEstero</t>
+  </si>
+  <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
+    <t>Stato ente</t>
+  </si>
+  <si>
+    <t>nazioneEnte</t>
+  </si>
+  <si>
+    <t>Stato ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeNazioneEnte</t>
+  </si>
+  <si>
+    <t>Data formazione documento</t>
+  </si>
+  <si>
+    <t>dataTrascrizione</t>
+  </si>
+  <si>
+    <t>Descrizione documento</t>
+  </si>
+  <si>
+    <t>descrizione</t>
+  </si>
+  <si>
+    <t>Estremi documento</t>
+  </si>
+  <si>
+    <t>estremiDocumento</t>
+  </si>
+  <si>
     <t>Autorità mittente</t>
   </si>
   <si>
@@ -260,15 +302,9 @@
     <t>dataComunicazione</t>
   </si>
   <si>
-    <t>Nome ente</t>
-  </si>
-  <si>
     <t>evento.trascrizioneMorte.autoritaMittente</t>
   </si>
   <si>
-    <t>nomeEnte</t>
-  </si>
-  <si>
     <t>Provincia ente</t>
   </si>
   <si>
@@ -422,31 +458,7 @@
     <t>Sentenza accertamento morte presunta</t>
   </si>
   <si>
-    <t>Data formazione documento</t>
-  </si>
-  <si>
     <t>evento.trascrizioneMorte.atto.enteEstero</t>
-  </si>
-  <si>
-    <t>dataTrascrizione</t>
-  </si>
-  <si>
-    <t>Estremi documento</t>
-  </si>
-  <si>
-    <t>estremiDocumento</t>
-  </si>
-  <si>
-    <t>Stato ente</t>
-  </si>
-  <si>
-    <t>nazioneEnte</t>
-  </si>
-  <si>
-    <t>Stato ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeNazioneEnte</t>
   </si>
   <si>
     <t>Coniuge</t>
@@ -604,7 +616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -613,7 +625,7 @@
     <col min="1" max="1" width="39.1015625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="40.421875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="39.5390625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="44.13671875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
@@ -1349,10 +1361,10 @@
         <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1363,16 +1375,16 @@
         <v>78</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1383,16 +1395,16 @@
         <v>78</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1403,16 +1415,16 @@
         <v>78</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1423,16 +1435,16 @@
         <v>78</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1440,19 +1452,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1460,19 +1472,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1480,19 +1492,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1500,19 +1512,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1520,19 +1532,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1540,19 +1552,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1560,16 +1572,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>108</v>
@@ -1580,16 +1592,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>110</v>
@@ -1600,7 +1612,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>111</v>
@@ -1609,7 +1621,7 @@
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>112</v>
@@ -1620,16 +1632,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>114</v>
@@ -1640,16 +1652,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>116</v>
@@ -1660,7 +1672,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>117</v>
@@ -1669,7 +1681,7 @@
         <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>118</v>
@@ -1680,7 +1692,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>119</v>
@@ -1689,7 +1701,7 @@
         <v>8</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>120</v>
@@ -1700,16 +1712,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>122</v>
@@ -1720,16 +1732,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>124</v>
@@ -1740,7 +1752,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>125</v>
@@ -1749,7 +1761,7 @@
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>126</v>
@@ -1760,7 +1772,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>127</v>
@@ -1769,7 +1781,7 @@
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>128</v>
@@ -1780,16 +1792,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>130</v>
@@ -1800,16 +1812,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>132</v>
@@ -1820,16 +1832,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>134</v>
@@ -1840,19 +1852,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -1860,19 +1872,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -1880,19 +1892,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -1900,16 +1912,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>142</v>
@@ -1920,16 +1932,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>144</v>
@@ -1940,19 +1952,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -1960,19 +1972,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -1980,19 +1992,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -2000,19 +2012,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -2020,19 +2032,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -2040,19 +2052,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>9</v>
@@ -2060,19 +2072,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>9</v>
@@ -2080,19 +2092,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>9</v>
@@ -2100,19 +2112,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -2120,19 +2132,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="E76" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -2140,19 +2152,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -2160,19 +2172,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -2180,16 +2192,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>114</v>
@@ -2200,16 +2212,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>116</v>
@@ -2220,16 +2232,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>118</v>
@@ -2240,16 +2252,16 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>120</v>
@@ -2260,16 +2272,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>122</v>
@@ -2280,16 +2292,16 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>124</v>
@@ -2300,16 +2312,16 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>126</v>
@@ -2320,16 +2332,16 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>128</v>
@@ -2340,16 +2352,16 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>130</v>
@@ -2360,16 +2372,16 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>132</v>
@@ -2380,16 +2392,16 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>134</v>
@@ -2400,19 +2412,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>
@@ -2420,19 +2432,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -2440,19 +2452,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>9</v>
@@ -2460,19 +2472,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>9</v>
@@ -2480,19 +2492,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>9</v>
@@ -2500,19 +2512,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>101</v>
+        <v>165</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>9</v>
@@ -2520,19 +2532,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>9</v>
@@ -2540,19 +2552,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>9</v>
@@ -2560,19 +2572,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>108</v>
+        <v>171</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>9</v>
@@ -2580,19 +2592,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>9</v>
@@ -2600,19 +2612,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>9</v>
@@ -2620,16 +2632,16 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>114</v>
@@ -2640,16 +2652,16 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>116</v>
@@ -2660,16 +2672,16 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>118</v>
@@ -2680,16 +2692,16 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>120</v>
@@ -2700,16 +2712,16 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>122</v>
@@ -2720,16 +2732,16 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>124</v>
@@ -2740,16 +2752,16 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>126</v>
@@ -2760,16 +2772,16 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>128</v>
@@ -2780,16 +2792,16 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>130</v>
@@ -2800,16 +2812,16 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>132</v>
@@ -2820,16 +2832,16 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>134</v>
@@ -2840,19 +2852,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>9</v>
@@ -2860,19 +2872,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>9</v>
@@ -2880,19 +2892,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>9</v>
@@ -2900,19 +2912,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>9</v>
@@ -2920,19 +2932,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>9</v>
@@ -2940,19 +2952,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>9</v>
@@ -2960,21 +2972,141 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B121" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E118" s="2" t="s">
+      <c r="F122" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F118" s="2" t="s">
+      <c r="B123" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F124" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_011.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="186">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -65,6 +68,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -467,6 +473,9 @@
     <t>evento.coniuge</t>
   </si>
   <si>
+    <t>{evento.intestatari[0].idstatocivile,in,(1,4,6,7,8,9)}</t>
+  </si>
+  <si>
     <t>Stato di nascita</t>
   </si>
   <si>
@@ -531,6 +540,9 @@
   </si>
   <si>
     <t>Unito civilmente</t>
+  </si>
+  <si>
+    <t>{evento.intestatari[0].idstatocivile,in,(1,2,3,4,8,9)}</t>
   </si>
   <si>
     <t>Dati della trascrizione</t>
@@ -616,7 +628,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -628,6 +640,7 @@
     <col min="4" max="4" width="44.13671875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="45.70703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -649,65 +662,77 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -729,2385 +754,2745 @@
       <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="E37" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E49" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="F119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/morte/Morte_011.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_011.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/morte/Morte_011.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="187">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,28 +32,31 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Sentenza di dichiarazione di morte presunta</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Sentenza di accertamento di morte</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193.1</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Sentenza di dichiarazione di morte presunta</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Sentenza di accertamento di morte</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193.1</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -755,2744 +758,2744 @@
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E44" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/morte/Morte_011.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_011.xlsx
@@ -476,7 +476,7 @@
     <t>evento.coniuge</t>
   </si>
   <si>
-    <t>{evento.intestatari[0].idstatocivile,in,(1,4,6,7,8,9)}</t>
+    <t>evento.intestatari[0].idstatocivile,in,(1,4,6,7,8,9)</t>
   </si>
   <si>
     <t>Stato di nascita</t>
@@ -545,7 +545,7 @@
     <t>Unito civilmente</t>
   </si>
   <si>
-    <t>{evento.intestatari[0].idstatocivile,in,(1,2,3,4,8,9)}</t>
+    <t>evento.intestatari[0].idstatocivile,in,(1,2,3,4,8,9)</t>
   </si>
   <si>
     <t>Dati della trascrizione</t>
@@ -643,7 +643,7 @@
     <col min="4" max="4" width="44.13671875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="45.70703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="44.32421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/morte/Morte_011.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="190">
   <si>
     <t>Sezione</t>
   </si>
@@ -149,24 +149,24 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
   </si>
   <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
-  </si>
-  <si>
     <t>Dati decesso</t>
   </si>
   <si>
@@ -251,6 +251,12 @@
     <t>nomeComuneMorte</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
     <t>Indirizzo</t>
   </si>
   <si>
@@ -408,6 +414,9 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalità</t>
@@ -631,7 +640,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1068,7 +1077,7 @@
         <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>29</v>
@@ -1114,7 +1123,7 @@
         <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>29</v>
@@ -1453,19 +1462,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1476,16 +1485,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>86</v>
@@ -1499,7 +1508,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>87</v>
@@ -1508,7 +1517,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>88</v>
@@ -1522,7 +1531,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>89</v>
@@ -1531,7 +1540,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>90</v>
@@ -1545,19 +1554,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1568,19 +1577,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1591,19 +1600,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1614,19 +1623,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1637,19 +1646,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1660,19 +1669,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1683,19 +1692,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1706,19 +1715,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1729,19 +1738,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1752,19 +1761,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1775,19 +1784,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1798,19 +1807,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1821,19 +1830,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1844,19 +1853,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1867,19 +1876,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1890,19 +1899,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1913,19 +1922,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1936,19 +1945,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1959,19 +1968,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1982,19 +1991,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2005,19 +2014,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2028,19 +2037,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2051,19 +2060,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2074,19 +2083,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2097,19 +2106,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2120,19 +2129,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2143,19 +2152,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2166,19 +2175,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2189,19 +2198,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2212,19 +2221,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2235,19 +2244,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2258,19 +2267,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2281,19 +2290,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2304,19 +2313,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2327,19 +2336,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2350,19 +2359,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2373,19 +2382,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2396,1105 +2405,1243 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>154</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>154</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>154</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>154</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>19</v>
+        <v>180</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>19</v>
+        <v>180</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E124" s="2" t="s">
+      <c r="B129" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_011.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_011.xlsx
@@ -2480,7 +2480,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>154</v>

--- a/docs/Mapping_casi_uso/morte/Morte_011.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="201">
   <si>
     <t>Sezione</t>
   </si>
@@ -582,6 +582,39 @@
   </si>
   <si>
     <t>descrizionestatocivile</t>
+  </si>
+  <si>
+    <t>Atto di nascita del deceduto</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneMorte.attoNascitaDeceduto</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>Tipo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>evento.datiAnnotazione</t>
+  </si>
+  <si>
+    <t>tipoAnnotazione</t>
+  </si>
+  <si>
+    <t>Dichiara come non certificabile</t>
+  </si>
+  <si>
+    <t>flagAnnotazioneNonCertificabile</t>
+  </si>
+  <si>
+    <t>Testo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>testoAnnotazione</t>
   </si>
 </sst>
 </file>
@@ -640,7 +673,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -650,7 +683,7 @@
     <col min="2" max="2" width="40.421875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="44.13671875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.0546875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="44.32421875" customWidth="true" bestFit="true"/>
   </cols>
@@ -3645,6 +3678,351 @@
         <v>19</v>
       </c>
     </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/morte/Morte_011.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="209">
   <si>
     <t>Sezione</t>
   </si>
@@ -471,6 +471,30 @@
   </si>
   <si>
     <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Sentenza accertamento morte presunta</t>
@@ -673,7 +697,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:H149"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2300,19 +2324,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2323,19 +2347,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2346,19 +2370,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2369,19 +2393,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2392,19 +2416,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2415,19 +2439,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2438,19 +2462,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2461,19 +2485,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2484,19 +2508,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2507,19 +2531,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2530,1496 +2554,1588 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>157</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>157</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>157</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>157</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="C126" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="C130" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C131" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>191</v>
+        <v>99</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>192</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>191</v>
+        <v>99</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>192</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>191</v>
+        <v>112</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>34</v>
+        <v>195</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>192</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>35</v>
+        <v>196</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>191</v>
+        <v>112</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>36</v>
+        <v>197</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>192</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>194</v>
+        <v>44</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>196</v>
+        <v>21</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>19</v>
+        <v>200</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>198</v>
+        <v>46</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>19</v>
+        <v>200</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="E145" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="F145" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="2" t="s">
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_011.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="210">
   <si>
     <t>Sezione</t>
   </si>
@@ -368,6 +368,12 @@
     <t>codiceFiscale</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -530,10 +536,7 @@
     <t>Comune di nascita - Descrizione</t>
   </si>
   <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -697,7 +700,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H149"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1916,7 +1919,7 @@
         <v>118</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>112</v>
@@ -2008,7 +2011,7 @@
         <v>126</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>112</v>
@@ -2097,7 +2100,7 @@
         <v>110</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>28</v>
@@ -2106,7 +2109,7 @@
         <v>112</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2120,10 +2123,10 @@
         <v>110</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>112</v>
@@ -2215,7 +2218,7 @@
         <v>143</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>112</v>
@@ -2416,19 +2419,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2439,19 +2442,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2462,19 +2465,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2485,19 +2488,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2508,19 +2511,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2531,19 +2534,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2554,19 +2557,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2577,19 +2580,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2600,19 +2603,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2623,19 +2626,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2649,7 +2652,7 @@
         <v>163</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>28</v>
@@ -2658,133 +2661,133 @@
         <v>164</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>165</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>168</v>
@@ -2793,21 +2796,21 @@
         <v>28</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>169</v>
@@ -2816,21 +2819,21 @@
         <v>28</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>170</v>
@@ -2839,21 +2842,21 @@
         <v>28</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>171</v>
@@ -2862,573 +2865,573 @@
         <v>28</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>172</v>
@@ -3437,21 +3440,21 @@
         <v>28</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>173</v>
@@ -3460,332 +3463,332 @@
         <v>28</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3796,346 +3799,415 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>30</v>
+        <v>193</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>200</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>199</v>
+        <v>112</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>32</v>
+        <v>196</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>200</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>200</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B149" s="2" t="s">
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E149" s="2" t="s">
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F149" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="2" t="s">
+      <c r="C152" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_011.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="212">
   <si>
     <t>Sezione</t>
   </si>
@@ -435,6 +435,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -700,7 +706,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H152"/>
+  <dimension ref="A1:H155"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2195,7 +2201,7 @@
         <v>141</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>112</v>
@@ -2218,7 +2224,7 @@
         <v>143</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>112</v>
@@ -2442,19 +2448,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2465,19 +2471,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2488,19 +2494,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2511,19 +2517,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2534,19 +2540,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2557,19 +2563,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2580,19 +2586,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2603,19 +2609,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2626,19 +2632,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2649,19 +2655,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2675,7 +2681,7 @@
         <v>165</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>28</v>
@@ -2684,363 +2690,363 @@
         <v>166</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>167</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>177</v>
@@ -3049,21 +3055,21 @@
         <v>28</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>178</v>
@@ -3072,21 +3078,21 @@
         <v>28</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>179</v>
@@ -3095,21 +3101,21 @@
         <v>28</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>180</v>
@@ -3118,21 +3124,21 @@
         <v>28</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>181</v>
@@ -3141,21 +3147,21 @@
         <v>28</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>182</v>
@@ -3164,228 +3170,228 @@
         <v>28</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>111</v>
+        <v>186</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>170</v>
@@ -3394,21 +3400,21 @@
         <v>28</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>171</v>
@@ -3417,21 +3423,21 @@
         <v>28</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>172</v>
@@ -3440,21 +3446,21 @@
         <v>28</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>173</v>
@@ -3463,113 +3469,113 @@
         <v>28</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>176</v>
@@ -3578,200 +3584,200 @@
         <v>28</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="134">
@@ -3779,22 +3785,22 @@
         <v>190</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="135">
@@ -3802,62 +3808,62 @@
         <v>190</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3868,346 +3874,415 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>27</v>
+        <v>194</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>200</v>
+        <v>99</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>30</v>
+        <v>195</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>201</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>31</v>
+        <v>197</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>200</v>
+        <v>112</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>32</v>
+        <v>198</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>201</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C140" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E140" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>201</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="E150" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="E151" s="2" t="s">
-        <v>207</v>
+        <v>48</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>19</v>
+        <v>203</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="E152" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D152" s="2" t="s">
+      <c r="C154" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E152" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="2" t="s">
+      <c r="B155" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_011.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="214">
   <si>
     <t>Sezione</t>
   </si>
@@ -543,6 +543,12 @@
   </si>
   <si>
     <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -706,7 +712,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:H157"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3026,7 +3032,7 @@
         <v>167</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>28</v>
@@ -3035,7 +3041,7 @@
         <v>168</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -3049,7 +3055,7 @@
         <v>167</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>28</v>
@@ -3058,7 +3064,7 @@
         <v>168</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -3072,7 +3078,7 @@
         <v>167</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>28</v>
@@ -3081,7 +3087,7 @@
         <v>168</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3095,7 +3101,7 @@
         <v>167</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>28</v>
@@ -3104,7 +3110,7 @@
         <v>168</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3118,7 +3124,7 @@
         <v>167</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>28</v>
@@ -3127,7 +3133,7 @@
         <v>168</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3141,7 +3147,7 @@
         <v>167</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>28</v>
@@ -3150,7 +3156,7 @@
         <v>168</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3164,7 +3170,7 @@
         <v>167</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>28</v>
@@ -3173,7 +3179,7 @@
         <v>168</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3187,7 +3193,7 @@
         <v>167</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>28</v>
@@ -3196,7 +3202,7 @@
         <v>168</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3210,7 +3216,7 @@
         <v>167</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>28</v>
@@ -3219,7 +3225,7 @@
         <v>168</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3276,11 +3282,11 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="C112" s="2" t="s">
         <v>28</v>
       </c>
@@ -3288,67 +3294,67 @@
         <v>168</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>28</v>
@@ -3357,21 +3363,21 @@
         <v>168</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>28</v>
@@ -3380,21 +3386,21 @@
         <v>168</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>28</v>
@@ -3403,21 +3409,21 @@
         <v>168</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>28</v>
@@ -3426,21 +3432,21 @@
         <v>168</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>28</v>
@@ -3449,21 +3455,21 @@
         <v>168</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>28</v>
@@ -3472,21 +3478,21 @@
         <v>168</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>28</v>
@@ -3495,21 +3501,21 @@
         <v>168</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>28</v>
@@ -3518,21 +3524,21 @@
         <v>168</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>28</v>
@@ -3541,21 +3547,21 @@
         <v>168</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>28</v>
@@ -3564,21 +3570,21 @@
         <v>168</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>28</v>
@@ -3587,21 +3593,21 @@
         <v>168</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>28</v>
@@ -3610,18 +3616,18 @@
         <v>168</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>177</v>
@@ -3633,21 +3639,21 @@
         <v>168</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>28</v>
@@ -3656,18 +3662,18 @@
         <v>168</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>179</v>
@@ -3679,18 +3685,18 @@
         <v>168</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>180</v>
@@ -3702,18 +3708,18 @@
         <v>168</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>181</v>
@@ -3725,18 +3731,18 @@
         <v>168</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>182</v>
@@ -3748,18 +3754,18 @@
         <v>168</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>183</v>
@@ -3771,18 +3777,18 @@
         <v>168</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>184</v>
@@ -3794,21 +3800,21 @@
         <v>168</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>28</v>
@@ -3817,21 +3823,21 @@
         <v>168</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>28</v>
@@ -3840,13 +3846,13 @@
         <v>168</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="137">
@@ -3854,22 +3860,22 @@
         <v>192</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="138">
@@ -3877,39 +3883,39 @@
         <v>192</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>19</v>
+        <v>193</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3920,19 +3926,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3943,346 +3949,392 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>27</v>
+        <v>199</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>202</v>
+        <v>112</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>203</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C142" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E142" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>203</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="E153" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="E154" s="2" t="s">
-        <v>209</v>
+        <v>50</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>19</v>
+        <v>205</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D155" s="2" t="s">
+      <c r="C156" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E155" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="2" t="s">
+      <c r="B157" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_011.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="216">
   <si>
     <t>Sezione</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -712,7 +718,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H157"/>
+  <dimension ref="A1:H159"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1195,7 +1201,7 @@
         <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>29</v>
@@ -1212,19 +1218,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -1235,16 +1241,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>56</v>
@@ -1258,7 +1264,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>57</v>
@@ -1267,7 +1273,7 @@
         <v>28</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>58</v>
@@ -1281,7 +1287,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>59</v>
@@ -1290,7 +1296,7 @@
         <v>28</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>60</v>
@@ -1304,7 +1310,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>61</v>
@@ -1313,7 +1319,7 @@
         <v>28</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>62</v>
@@ -1327,7 +1333,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>63</v>
@@ -1336,7 +1342,7 @@
         <v>28</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>64</v>
@@ -1350,7 +1356,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>65</v>
@@ -1359,7 +1365,7 @@
         <v>28</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>66</v>
@@ -1373,16 +1379,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>68</v>
@@ -1396,7 +1402,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>69</v>
@@ -1405,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>70</v>
@@ -1419,16 +1425,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>72</v>
@@ -1442,7 +1448,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>73</v>
@@ -1451,7 +1457,7 @@
         <v>28</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>74</v>
@@ -1465,7 +1471,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>75</v>
@@ -1474,7 +1480,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>76</v>
@@ -1488,7 +1494,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>77</v>
@@ -1497,7 +1503,7 @@
         <v>28</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>78</v>
@@ -1511,7 +1517,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>79</v>
@@ -1520,7 +1526,7 @@
         <v>28</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>80</v>
@@ -1534,7 +1540,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>81</v>
@@ -1543,7 +1549,7 @@
         <v>28</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>82</v>
@@ -1557,19 +1563,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1580,16 +1586,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>88</v>
@@ -1603,7 +1609,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>89</v>
@@ -1612,7 +1618,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>90</v>
@@ -1626,19 +1632,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1649,19 +1655,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1672,16 +1678,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>94</v>
@@ -1695,16 +1701,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>96</v>
@@ -1718,19 +1724,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1741,10 +1747,10 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
@@ -1753,7 +1759,7 @@
         <v>101</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1764,19 +1770,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1787,7 +1793,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>104</v>
@@ -1796,7 +1802,7 @@
         <v>28</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>105</v>
@@ -1810,7 +1816,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>106</v>
@@ -1819,7 +1825,7 @@
         <v>28</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>107</v>
@@ -1833,7 +1839,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>108</v>
@@ -1842,7 +1848,7 @@
         <v>28</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>109</v>
@@ -1856,19 +1862,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1879,16 +1885,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>115</v>
@@ -1902,16 +1908,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>117</v>
@@ -1925,7 +1931,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>118</v>
@@ -1934,7 +1940,7 @@
         <v>28</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>119</v>
@@ -1948,16 +1954,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>121</v>
@@ -1971,7 +1977,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>122</v>
@@ -1980,7 +1986,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>123</v>
@@ -1994,7 +2000,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>124</v>
@@ -2003,7 +2009,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>125</v>
@@ -2017,7 +2023,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>126</v>
@@ -2026,7 +2032,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>127</v>
@@ -2040,16 +2046,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>129</v>
@@ -2063,7 +2069,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>130</v>
@@ -2072,7 +2078,7 @@
         <v>28</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>131</v>
@@ -2086,7 +2092,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>132</v>
@@ -2095,7 +2101,7 @@
         <v>28</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>133</v>
@@ -2109,7 +2115,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>134</v>
@@ -2118,7 +2124,7 @@
         <v>28</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>135</v>
@@ -2132,19 +2138,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2155,16 +2161,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>138</v>
@@ -2178,7 +2184,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>139</v>
@@ -2187,7 +2193,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>140</v>
@@ -2201,16 +2207,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>142</v>
@@ -2224,7 +2230,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>143</v>
@@ -2233,7 +2239,7 @@
         <v>28</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>144</v>
@@ -2247,7 +2253,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>145</v>
@@ -2256,7 +2262,7 @@
         <v>28</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>146</v>
@@ -2270,7 +2276,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>147</v>
@@ -2279,7 +2285,7 @@
         <v>28</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>148</v>
@@ -2293,7 +2299,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>149</v>
@@ -2302,7 +2308,7 @@
         <v>28</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>150</v>
@@ -2316,7 +2322,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>151</v>
@@ -2325,7 +2331,7 @@
         <v>28</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>152</v>
@@ -2339,7 +2345,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>153</v>
@@ -2348,7 +2354,7 @@
         <v>28</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>154</v>
@@ -2362,7 +2368,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>155</v>
@@ -2371,7 +2377,7 @@
         <v>28</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>156</v>
@@ -2385,7 +2391,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>157</v>
@@ -2394,7 +2400,7 @@
         <v>28</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>158</v>
@@ -2408,7 +2414,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>159</v>
@@ -2417,7 +2423,7 @@
         <v>28</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>160</v>
@@ -2431,7 +2437,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>161</v>
@@ -2440,7 +2446,7 @@
         <v>28</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>162</v>
@@ -2454,7 +2460,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>163</v>
@@ -2463,7 +2469,7 @@
         <v>28</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>164</v>
@@ -2477,19 +2483,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2500,19 +2506,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2523,19 +2529,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2546,16 +2552,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>88</v>
@@ -2569,7 +2575,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>89</v>
@@ -2578,7 +2584,7 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>90</v>
@@ -2592,19 +2598,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2615,7 +2621,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>104</v>
@@ -2624,7 +2630,7 @@
         <v>28</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>105</v>
@@ -2638,7 +2644,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>106</v>
@@ -2647,7 +2653,7 @@
         <v>28</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>107</v>
@@ -2661,7 +2667,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>108</v>
@@ -2670,7 +2676,7 @@
         <v>28</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>109</v>
@@ -2684,19 +2690,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2710,7 +2716,7 @@
         <v>167</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>28</v>
@@ -2719,27 +2725,27 @@
         <v>168</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>169</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>115</v>
@@ -2748,35 +2754,35 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>120</v>
@@ -2785,7 +2791,7 @@
         <v>28</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>121</v>
@@ -2794,12 +2800,12 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>122</v>
@@ -2808,7 +2814,7 @@
         <v>28</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>123</v>
@@ -2817,21 +2823,21 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>125</v>
@@ -2840,21 +2846,21 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>127</v>
@@ -2863,21 +2869,21 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>129</v>
@@ -2886,21 +2892,21 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>131</v>
@@ -2909,21 +2915,21 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>133</v>
@@ -2932,21 +2938,21 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>135</v>
@@ -2955,44 +2961,44 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>138</v>
@@ -3001,21 +3007,21 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>140</v>
@@ -3024,67 +3030,67 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>144</v>
@@ -3093,21 +3099,21 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>146</v>
@@ -3116,21 +3122,21 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>148</v>
@@ -3139,21 +3145,21 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>150</v>
@@ -3162,21 +3168,21 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>152</v>
@@ -3185,21 +3191,21 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>154</v>
@@ -3208,21 +3214,21 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>156</v>
@@ -3231,35 +3237,35 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>188</v>
@@ -3268,7 +3274,7 @@
         <v>28</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>189</v>
@@ -3277,12 +3283,12 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>190</v>
@@ -3291,7 +3297,7 @@
         <v>28</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>191</v>
@@ -3300,44 +3306,44 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="C113" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>115</v>
@@ -3346,35 +3352,35 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>120</v>
@@ -3383,7 +3389,7 @@
         <v>28</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>121</v>
@@ -3392,12 +3398,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>122</v>
@@ -3406,7 +3412,7 @@
         <v>28</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>123</v>
@@ -3415,21 +3421,21 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>125</v>
@@ -3438,21 +3444,21 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>127</v>
@@ -3461,21 +3467,21 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>129</v>
@@ -3484,21 +3490,21 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>131</v>
@@ -3507,21 +3513,21 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>133</v>
@@ -3530,21 +3536,21 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>135</v>
@@ -3553,44 +3559,44 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>138</v>
@@ -3599,21 +3605,21 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>140</v>
@@ -3622,67 +3628,67 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>144</v>
@@ -3691,21 +3697,21 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>146</v>
@@ -3714,21 +3720,21 @@
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>148</v>
@@ -3737,21 +3743,21 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>150</v>
@@ -3760,21 +3766,21 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>152</v>
@@ -3783,21 +3789,21 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>154</v>
@@ -3806,21 +3812,21 @@
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>156</v>
@@ -3829,35 +3835,35 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>188</v>
@@ -3866,7 +3872,7 @@
         <v>28</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>189</v>
@@ -3875,12 +3881,12 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>190</v>
@@ -3889,7 +3895,7 @@
         <v>28</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>191</v>
@@ -3898,7 +3904,7 @@
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="139">
@@ -3906,39 +3912,39 @@
         <v>194</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>197</v>
+        <v>102</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3949,19 +3955,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3972,7 +3978,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>201</v>
@@ -3981,7 +3987,7 @@
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>202</v>
@@ -3995,346 +4001,392 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C143" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E143" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>205</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="E155" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="E156" s="2" t="s">
-        <v>211</v>
+        <v>52</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D157" s="2" t="s">
+      <c r="C158" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E157" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="2" t="s">
+      <c r="B159" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_011.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_011.xlsx
@@ -2765,7 +2765,7 @@
         <v>116</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>170</v>
@@ -3363,7 +3363,7 @@
         <v>116</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>170</v>

--- a/docs/Mapping_casi_uso/morte/Morte_011.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="220">
   <si>
     <t>Sezione</t>
   </si>
@@ -384,6 +384,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -718,7 +730,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H159"/>
+  <dimension ref="A1:H165"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2006,7 +2018,7 @@
         <v>124</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>114</v>
@@ -2029,7 +2041,7 @@
         <v>126</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>114</v>
@@ -2075,7 +2087,7 @@
         <v>130</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>114</v>
@@ -2098,7 +2110,7 @@
         <v>132</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>114</v>
@@ -2164,7 +2176,7 @@
         <v>112</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>28</v>
@@ -2173,7 +2185,7 @@
         <v>114</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2187,16 +2199,16 @@
         <v>112</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>114</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2210,10 +2222,10 @@
         <v>112</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>114</v>
@@ -2236,7 +2248,7 @@
         <v>143</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>114</v>
@@ -2259,7 +2271,7 @@
         <v>145</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>114</v>
@@ -2506,19 +2518,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2529,19 +2541,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2552,19 +2564,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2575,19 +2587,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2598,19 +2610,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2621,19 +2633,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2644,19 +2656,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2667,19 +2679,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2690,19 +2702,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2713,19 +2725,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2736,214 +2748,214 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>171</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>171</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>176</v>
@@ -2952,21 +2964,21 @@
         <v>28</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>177</v>
@@ -2975,159 +2987,159 @@
         <v>28</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>182</v>
@@ -3136,21 +3148,21 @@
         <v>28</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>183</v>
@@ -3159,44 +3171,44 @@
         <v>28</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>185</v>
@@ -3205,21 +3217,21 @@
         <v>28</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>186</v>
@@ -3228,21 +3240,21 @@
         <v>28</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>187</v>
@@ -3251,21 +3263,21 @@
         <v>28</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>188</v>
@@ -3274,366 +3286,366 @@
         <v>28</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="C116" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>122</v>
+        <v>196</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>123</v>
+        <v>197</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>178</v>
@@ -3642,21 +3654,21 @@
         <v>28</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>179</v>
@@ -3665,44 +3677,44 @@
         <v>28</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>181</v>
@@ -3711,622 +3723,622 @@
         <v>28</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>19</v>
+        <v>199</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="E141" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>19</v>
+        <v>199</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>19</v>
+        <v>199</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>27</v>
+        <v>194</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>30</v>
+        <v>195</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>31</v>
+        <v>196</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>206</v>
+        <v>101</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>207</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>35</v>
+        <v>202</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>206</v>
+        <v>101</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>36</v>
+        <v>203</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>207</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C148" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E148" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>207</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>39</v>
+        <v>207</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>206</v>
+        <v>114</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>207</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>209</v>
+        <v>42</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>28</v>
@@ -4335,21 +4347,21 @@
         <v>210</v>
       </c>
       <c r="E157" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>212</v>
+        <v>44</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>28</v>
@@ -4358,21 +4370,21 @@
         <v>210</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>213</v>
+        <v>21</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>19</v>
+        <v>211</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>214</v>
+        <v>45</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>28</v>
@@ -4381,12 +4393,150 @@
         <v>210</v>
       </c>
       <c r="E159" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F159" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G159" s="2" t="s">
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>19</v>
       </c>
     </row>
